--- a/REGULAR/MAYORS OFFICE/MENDOZA, ARRIES.xlsx
+++ b/REGULAR/MAYORS OFFICE/MENDOZA, ARRIES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="327">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1011,6 +1011,9 @@
   </si>
   <si>
     <t>6/19,20/2023</t>
+  </si>
+  <si>
+    <t>12/21,22,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2037,8 +2040,8 @@
   <dimension ref="A2:K529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3405" topLeftCell="A469" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="I485" sqref="I485"/>
+      <pane ySplit="3480" topLeftCell="A469" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D489" sqref="D489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2202,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>147.32499999999996</v>
+        <v>144.82499999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2209,7 +2212,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>254.70799999999997</v>
+        <v>257.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12767,13 +12770,15 @@
       <c r="B485" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C485" s="13"/>
+      <c r="C485" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D485" s="38"/>
       <c r="E485" s="9"/>
       <c r="F485" s="20"/>
-      <c r="G485" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G485" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H485" s="38">
         <v>1</v>
@@ -12789,13 +12794,15 @@
         <v>45230</v>
       </c>
       <c r="B486" s="20"/>
-      <c r="C486" s="13"/>
+      <c r="C486" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D486" s="38"/>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G486" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H486" s="38"/>
       <c r="I486" s="9"/>
@@ -12806,9 +12813,13 @@
       <c r="A487" s="39">
         <v>45260</v>
       </c>
-      <c r="B487" s="20"/>
+      <c r="B487" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="C487" s="13"/>
-      <c r="D487" s="38"/>
+      <c r="D487" s="38">
+        <v>5</v>
+      </c>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
       <c r="G487" s="13" t="str">
@@ -12818,7 +12829,9 @@
       <c r="H487" s="38"/>
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
-      <c r="K487" s="20"/>
+      <c r="K487" s="20" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39">
